--- a/trening_raport.xlsx
+++ b/trening_raport.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2e8918caed3689e/Desktop/IV sem/IG2/infa repozytorium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2e8918caed3689e/Desktop/IV sem/IG2/infa_repoz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_83369D5B65309FAF6CF78EF9320BC5A20F084547" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D3B0819-77D4-4FE3-BDED-8E68CFEA197F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_83369D5B65309FAF6CF78EF9320BC5A20F084547" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A24B983-90B2-4788-97B2-F23539162EF5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="9180" yWindow="468" windowWidth="13020" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Dzień</t>
+    <t>Dystans</t>
   </si>
   <si>
-    <t>Dystans</t>
+    <t>Dzien</t>
   </si>
 </sst>
 </file>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -62,18 +62,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -354,32 +348,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.15625" customWidth="true"/>
-    <col min="2" max="2" width="3.15625" customWidth="true"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="0">
-        <v>3</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0">
-        <v>34</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/trening_raport.xlsx
+++ b/trening_raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2e8918caed3689e/Desktop/IV sem/IG2/infa_repoz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96f8ae571570bc38/Pulpit/lokal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_83369D5B65309FAF6CF78EF9320BC5A20F084547" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A24B983-90B2-4788-97B2-F23539162EF5}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_83369D5B65309FAF6CF78EF9320BC5A20F084547" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC93BEF-BCA2-40BD-B446-6A90A918DB12}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="468" windowWidth="13020" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Dystans</t>
+    <t>Dzien</t>
   </si>
   <si>
-    <t>Dzien</t>
+    <t>Dystans</t>
   </si>
 </sst>
 </file>
@@ -348,23 +348,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
